--- a/odkx/app/config/tables/hh_member/forms/hh_member_absent/hh_member_absent.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_absent/hh_member_absent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -920,6 +920,9 @@
     <t xml:space="preserve">member_died_when</t>
   </si>
   <si>
+    <t xml:space="preserve">birth_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">member_died_when_dk</t>
   </si>
   <si>
@@ -942,9 +945,6 @@
   </si>
   <si>
     <t xml:space="preserve">new_member_move_in_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth_date</t>
   </si>
   <si>
     <t xml:space="preserve">new_member_move_in_enter</t>
@@ -1218,7 +1218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1260,12 +1260,6 @@
       <name val="Cascadia Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1379,7 +1373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1412,10 +1406,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,11 +1430,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,7 +1521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -2572,17 +2562,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="7" style="0" width="8.69"/>
   </cols>
   <sheetData>
@@ -2717,7 +2706,7 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="1"/>
@@ -3960,7 +3949,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -4084,7 +4073,7 @@
       <c r="B11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4095,7 +4084,7 @@
       <c r="B12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4106,7 +4095,7 @@
       <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4117,7 +4106,7 @@
       <c r="B14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4128,7 +4117,7 @@
       <c r="B15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4216,7 +4205,7 @@
       <c r="B23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4227,7 +4216,7 @@
       <c r="B24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4238,7 +4227,7 @@
       <c r="B25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4249,7 +4238,7 @@
       <c r="B26" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6790,11 +6779,11 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -6817,7 +6806,7 @@
       <c r="D1" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6825,3120 +6814,3120 @@
       <c r="A2" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="C33" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="8"/>
+      <c r="B35" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B39" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="C40" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>336</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E74" s="8"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="8"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="8"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="8"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="E98" s="8"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E99" s="8"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E101" s="8"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E103" s="8"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="8"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="8"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="8"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="8"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="8"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="8"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="8"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="8"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="8"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="8"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="8"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="8"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="8"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="8"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="8"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="8"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="8"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="8"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="8"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="8"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="8"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="8"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="8"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="8"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="8"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="8"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="8"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="8"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="8"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="8"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="8"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="8"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="8"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="8"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="8"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="8"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="8"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="8"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="8"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="8"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="8"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="8"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="8"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="8"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="8"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="8"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="8"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="8"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="8"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="8"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="8"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="8"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="8"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="8"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="8"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="8"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="8"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="8"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="8"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="8"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="8"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="8"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="8"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="8"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="8"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="8"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="8"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="8"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="8"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="8"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="8"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="8"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="8"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="8"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="8"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="8"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="8"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="8"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="8"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="8"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="8"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="8"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="8"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="8"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="8"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="8"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="8"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="8"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="8"/>
+      <c r="E192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="8"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="8"/>
+      <c r="E194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="8"/>
+      <c r="E195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="8"/>
+      <c r="E196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="8"/>
+      <c r="E197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="8"/>
+      <c r="E198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="8"/>
+      <c r="E199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="8"/>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="8"/>
+      <c r="E201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="8"/>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="8"/>
+      <c r="E203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="8"/>
+      <c r="E204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="8"/>
+      <c r="E205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="8"/>
+      <c r="E206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="8"/>
+      <c r="E207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="8"/>
+      <c r="E208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="8"/>
+      <c r="E209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="8"/>
+      <c r="E210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="8"/>
+      <c r="E211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="8"/>
+      <c r="E212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="8"/>
+      <c r="E213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="8"/>
+      <c r="E214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="8"/>
+      <c r="E215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="8"/>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="8"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="8"/>
+      <c r="E218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="8"/>
+      <c r="E219" s="7"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="8"/>
+      <c r="E220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="8"/>
+      <c r="E221" s="7"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="8"/>
+      <c r="E222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="8"/>
+      <c r="E223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="8"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="8"/>
+      <c r="E225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="8"/>
+      <c r="E226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="8"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="8"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="8"/>
+      <c r="E229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="8"/>
+      <c r="E230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="8"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="8"/>
+      <c r="E232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="8"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="8"/>
+      <c r="E234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="8"/>
+      <c r="E235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="8"/>
+      <c r="E236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="8"/>
+      <c r="E237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="8"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="8"/>
+      <c r="E239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="8"/>
+      <c r="E240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="8"/>
+      <c r="E241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="8"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="8"/>
+      <c r="E243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="8"/>
+      <c r="E244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="8"/>
+      <c r="E245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="8"/>
+      <c r="E246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="8"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="8"/>
+      <c r="E248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="8"/>
+      <c r="E249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="8"/>
+      <c r="E250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="8"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="8"/>
+      <c r="E252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="8"/>
+      <c r="E253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="8"/>
+      <c r="E254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="8"/>
+      <c r="E255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="8"/>
+      <c r="E256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="8"/>
+      <c r="E257" s="7"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="8"/>
+      <c r="E258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="8"/>
+      <c r="E259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="8"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="8"/>
+      <c r="E261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="8"/>
+      <c r="E262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="8"/>
+      <c r="E263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="8"/>
+      <c r="E264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="8"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="8"/>
+      <c r="E266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="8"/>
+      <c r="E267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="8"/>
+      <c r="E268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="8"/>
+      <c r="E269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="8"/>
+      <c r="E270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="8"/>
+      <c r="E271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="8"/>
+      <c r="E272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="8"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="8"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="8"/>
+      <c r="E275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="8"/>
+      <c r="E276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="8"/>
+      <c r="E277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="8"/>
+      <c r="E278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="8"/>
+      <c r="E279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="8"/>
+      <c r="E280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="8"/>
+      <c r="E281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="8"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="8"/>
+      <c r="E283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="8"/>
+      <c r="E284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="8"/>
+      <c r="E285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="8"/>
+      <c r="E286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="8"/>
+      <c r="E287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="8"/>
+      <c r="E288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="8"/>
+      <c r="E289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="8"/>
+      <c r="E290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="8"/>
+      <c r="E291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="8"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="8"/>
+      <c r="E293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="8"/>
+      <c r="E294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="8"/>
+      <c r="E295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="8"/>
+      <c r="E296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="8"/>
+      <c r="E297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="8"/>
+      <c r="E298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="8"/>
+      <c r="E299" s="7"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="8"/>
+      <c r="E300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="8"/>
+      <c r="E301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="8"/>
+      <c r="E302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="8"/>
+      <c r="E303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="8"/>
+      <c r="E304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="8"/>
+      <c r="E305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="8"/>
+      <c r="E306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="8"/>
+      <c r="E307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="8"/>
+      <c r="E308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="8"/>
+      <c r="E309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="8"/>
+      <c r="E310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="8"/>
+      <c r="E311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="8"/>
+      <c r="E312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="8"/>
+      <c r="E313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="8"/>
+      <c r="E314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="8"/>
+      <c r="E315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="8"/>
+      <c r="E316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="8"/>
+      <c r="E317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="8"/>
+      <c r="E318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="8"/>
+      <c r="E319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="8"/>
+      <c r="E320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="8"/>
+      <c r="E321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="8"/>
+      <c r="E322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="8"/>
+      <c r="E323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="8"/>
+      <c r="E324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="8"/>
+      <c r="E325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="8"/>
+      <c r="E326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="8"/>
+      <c r="E327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="8"/>
+      <c r="E328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="8"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="8"/>
+      <c r="E330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="8"/>
+      <c r="E331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="8"/>
+      <c r="E332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="8"/>
+      <c r="E333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="8"/>
+      <c r="E334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="8"/>
+      <c r="E335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="8"/>
+      <c r="E336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="8"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="8"/>
+      <c r="E338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="8"/>
+      <c r="E339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="8"/>
+      <c r="E340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="8"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="8"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="8"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="8"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="8"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="8"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="8"/>
+      <c r="E347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="8"/>
+      <c r="E348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="8"/>
+      <c r="E349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="8"/>
+      <c r="E350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="8"/>
+      <c r="E351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="8"/>
+      <c r="E352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="8"/>
+      <c r="E353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="8"/>
+      <c r="E354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="8"/>
+      <c r="E355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="8"/>
+      <c r="E356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="8"/>
+      <c r="E357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="8"/>
+      <c r="E358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="8"/>
+      <c r="E359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="8"/>
+      <c r="E360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="8"/>
+      <c r="E361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="8"/>
+      <c r="E362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="8"/>
+      <c r="E363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="8"/>
+      <c r="E364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="8"/>
+      <c r="E365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="8"/>
+      <c r="E366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="8"/>
+      <c r="E367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="8"/>
+      <c r="E368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="8"/>
+      <c r="E369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="8"/>
+      <c r="E370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="8"/>
+      <c r="E371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="8"/>
+      <c r="E372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="8"/>
+      <c r="E373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="8"/>
+      <c r="E374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="8"/>
+      <c r="E375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="8"/>
+      <c r="E376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="8"/>
+      <c r="E377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="8"/>
+      <c r="E378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="8"/>
+      <c r="E379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="8"/>
+      <c r="E380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="8"/>
+      <c r="E381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="8"/>
+      <c r="E382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="8"/>
+      <c r="E383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="8"/>
+      <c r="E384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="8"/>
+      <c r="E385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="8"/>
+      <c r="E386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="8"/>
+      <c r="E387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="8"/>
+      <c r="E388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="8"/>
+      <c r="E389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="8"/>
+      <c r="E390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="8"/>
+      <c r="E391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="8"/>
+      <c r="E392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="8"/>
+      <c r="E393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="8"/>
+      <c r="E394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="8"/>
+      <c r="E395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="8"/>
+      <c r="E396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="8"/>
+      <c r="E397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="8"/>
+      <c r="E398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="8"/>
+      <c r="E399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="8"/>
+      <c r="E400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="8"/>
+      <c r="E401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="8"/>
+      <c r="E402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="8"/>
+      <c r="E403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="8"/>
+      <c r="E404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="8"/>
+      <c r="E405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="8"/>
+      <c r="E406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="8"/>
+      <c r="E407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="8"/>
+      <c r="E408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="8"/>
+      <c r="E409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="8"/>
+      <c r="E410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="8"/>
+      <c r="E411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="8"/>
+      <c r="E412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="8"/>
+      <c r="E413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="8"/>
+      <c r="E414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="8"/>
+      <c r="E415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E416" s="8"/>
+      <c r="E416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E417" s="8"/>
+      <c r="E417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E418" s="8"/>
+      <c r="E418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E419" s="8"/>
+      <c r="E419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E420" s="8"/>
+      <c r="E420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E421" s="8"/>
+      <c r="E421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E422" s="8"/>
+      <c r="E422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E423" s="8"/>
+      <c r="E423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E424" s="8"/>
+      <c r="E424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E425" s="8"/>
+      <c r="E425" s="7"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E426" s="8"/>
+      <c r="E426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E427" s="8"/>
+      <c r="E427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E428" s="8"/>
+      <c r="E428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E429" s="8"/>
+      <c r="E429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E430" s="8"/>
+      <c r="E430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E431" s="8"/>
+      <c r="E431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E432" s="8"/>
+      <c r="E432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E433" s="8"/>
+      <c r="E433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E434" s="8"/>
+      <c r="E434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E435" s="8"/>
+      <c r="E435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E436" s="8"/>
+      <c r="E436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E437" s="8"/>
+      <c r="E437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E438" s="8"/>
+      <c r="E438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E439" s="8"/>
+      <c r="E439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E440" s="8"/>
+      <c r="E440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E441" s="8"/>
+      <c r="E441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E442" s="8"/>
+      <c r="E442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E443" s="8"/>
+      <c r="E443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E444" s="8"/>
+      <c r="E444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E445" s="8"/>
+      <c r="E445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E446" s="8"/>
+      <c r="E446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E447" s="8"/>
+      <c r="E447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E448" s="8"/>
+      <c r="E448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E449" s="8"/>
+      <c r="E449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E450" s="8"/>
+      <c r="E450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E451" s="8"/>
+      <c r="E451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E452" s="8"/>
+      <c r="E452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E453" s="8"/>
+      <c r="E453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E454" s="8"/>
+      <c r="E454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E455" s="8"/>
+      <c r="E455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E456" s="8"/>
+      <c r="E456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E457" s="8"/>
+      <c r="E457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E458" s="8"/>
+      <c r="E458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E459" s="8"/>
+      <c r="E459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E460" s="8"/>
+      <c r="E460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E461" s="8"/>
+      <c r="E461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E462" s="8"/>
+      <c r="E462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E463" s="8"/>
+      <c r="E463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E464" s="8"/>
+      <c r="E464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E465" s="8"/>
+      <c r="E465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E466" s="8"/>
+      <c r="E466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E467" s="8"/>
+      <c r="E467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E468" s="8"/>
+      <c r="E468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E469" s="8"/>
+      <c r="E469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E470" s="8"/>
+      <c r="E470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E471" s="8"/>
+      <c r="E471" s="7"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E472" s="8"/>
+      <c r="E472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E473" s="8"/>
+      <c r="E473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E474" s="8"/>
+      <c r="E474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E475" s="8"/>
+      <c r="E475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E476" s="8"/>
+      <c r="E476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E477" s="8"/>
+      <c r="E477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E478" s="8"/>
+      <c r="E478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E479" s="8"/>
+      <c r="E479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E480" s="8"/>
+      <c r="E480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E481" s="8"/>
+      <c r="E481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E482" s="8"/>
+      <c r="E482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E483" s="8"/>
+      <c r="E483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E484" s="8"/>
+      <c r="E484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E485" s="8"/>
+      <c r="E485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E486" s="8"/>
+      <c r="E486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E487" s="8"/>
+      <c r="E487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E488" s="8"/>
+      <c r="E488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E489" s="8"/>
+      <c r="E489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E490" s="8"/>
+      <c r="E490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E491" s="8"/>
+      <c r="E491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E492" s="8"/>
+      <c r="E492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E493" s="8"/>
+      <c r="E493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E494" s="8"/>
+      <c r="E494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E495" s="8"/>
+      <c r="E495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E496" s="8"/>
+      <c r="E496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E497" s="8"/>
+      <c r="E497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E498" s="8"/>
+      <c r="E498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E499" s="8"/>
+      <c r="E499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E500" s="8"/>
+      <c r="E500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E501" s="8"/>
+      <c r="E501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E502" s="8"/>
+      <c r="E502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E503" s="8"/>
+      <c r="E503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E504" s="8"/>
+      <c r="E504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E505" s="8"/>
+      <c r="E505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E506" s="8"/>
+      <c r="E506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E507" s="8"/>
+      <c r="E507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E508" s="8"/>
+      <c r="E508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E509" s="8"/>
+      <c r="E509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E510" s="8"/>
+      <c r="E510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E511" s="8"/>
+      <c r="E511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E512" s="8"/>
+      <c r="E512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E513" s="8"/>
+      <c r="E513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E514" s="8"/>
+      <c r="E514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E515" s="8"/>
+      <c r="E515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E516" s="8"/>
+      <c r="E516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E517" s="8"/>
+      <c r="E517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E518" s="8"/>
+      <c r="E518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E519" s="8"/>
+      <c r="E519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E520" s="8"/>
+      <c r="E520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E521" s="8"/>
+      <c r="E521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E522" s="8"/>
+      <c r="E522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E523" s="8"/>
+      <c r="E523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E524" s="8"/>
+      <c r="E524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E525" s="8"/>
+      <c r="E525" s="7"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E526" s="8"/>
+      <c r="E526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E527" s="8"/>
+      <c r="E527" s="7"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E528" s="8"/>
+      <c r="E528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E529" s="8"/>
+      <c r="E529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E530" s="8"/>
+      <c r="E530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E531" s="8"/>
+      <c r="E531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E532" s="8"/>
+      <c r="E532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E533" s="8"/>
+      <c r="E533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E534" s="8"/>
+      <c r="E534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E535" s="8"/>
+      <c r="E535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E536" s="8"/>
+      <c r="E536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E537" s="8"/>
+      <c r="E537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E538" s="8"/>
+      <c r="E538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E539" s="8"/>
+      <c r="E539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E540" s="8"/>
+      <c r="E540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E541" s="8"/>
+      <c r="E541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E542" s="8"/>
+      <c r="E542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E543" s="8"/>
+      <c r="E543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E544" s="8"/>
+      <c r="E544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E545" s="8"/>
+      <c r="E545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E546" s="8"/>
+      <c r="E546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E547" s="8"/>
+      <c r="E547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E548" s="8"/>
+      <c r="E548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E549" s="8"/>
+      <c r="E549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E550" s="8"/>
+      <c r="E550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E551" s="8"/>
+      <c r="E551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E552" s="8"/>
+      <c r="E552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E553" s="8"/>
+      <c r="E553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E554" s="8"/>
+      <c r="E554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="8"/>
+      <c r="E555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E556" s="8"/>
+      <c r="E556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E557" s="8"/>
+      <c r="E557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E558" s="8"/>
+      <c r="E558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E559" s="8"/>
+      <c r="E559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E560" s="8"/>
+      <c r="E560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E561" s="8"/>
+      <c r="E561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E562" s="8"/>
+      <c r="E562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E563" s="8"/>
+      <c r="E563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E564" s="8"/>
+      <c r="E564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E565" s="8"/>
+      <c r="E565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E566" s="8"/>
+      <c r="E566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E567" s="8"/>
+      <c r="E567" s="7"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E568" s="8"/>
+      <c r="E568" s="7"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E569" s="8"/>
+      <c r="E569" s="7"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E570" s="8"/>
+      <c r="E570" s="7"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E571" s="8"/>
+      <c r="E571" s="7"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E572" s="8"/>
+      <c r="E572" s="7"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E573" s="8"/>
+      <c r="E573" s="7"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E574" s="8"/>
+      <c r="E574" s="7"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E575" s="8"/>
+      <c r="E575" s="7"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E576" s="8"/>
+      <c r="E576" s="7"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E577" s="8"/>
+      <c r="E577" s="7"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E578" s="8"/>
+      <c r="E578" s="7"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="8"/>
+      <c r="E579" s="7"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E580" s="8"/>
+      <c r="E580" s="7"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E581" s="8"/>
+      <c r="E581" s="7"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E582" s="8"/>
+      <c r="E582" s="7"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E583" s="8"/>
+      <c r="E583" s="7"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E584" s="8"/>
+      <c r="E584" s="7"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="8"/>
+      <c r="E585" s="7"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="8"/>
+      <c r="E586" s="7"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="8"/>
+      <c r="E587" s="7"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E588" s="8"/>
+      <c r="E588" s="7"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E589" s="8"/>
+      <c r="E589" s="7"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E590" s="8"/>
+      <c r="E590" s="7"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E591" s="8"/>
+      <c r="E591" s="7"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E592" s="8"/>
+      <c r="E592" s="7"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E593" s="8"/>
+      <c r="E593" s="7"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E594" s="8"/>
+      <c r="E594" s="7"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E595" s="8"/>
+      <c r="E595" s="7"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E596" s="8"/>
+      <c r="E596" s="7"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E597" s="8"/>
+      <c r="E597" s="7"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E598" s="8"/>
+      <c r="E598" s="7"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E599" s="8"/>
+      <c r="E599" s="7"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E600" s="8"/>
+      <c r="E600" s="7"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E601" s="8"/>
+      <c r="E601" s="7"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E602" s="8"/>
+      <c r="E602" s="7"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E603" s="8"/>
+      <c r="E603" s="7"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E604" s="8"/>
+      <c r="E604" s="7"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E605" s="8"/>
+      <c r="E605" s="7"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="8"/>
+      <c r="E606" s="7"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E607" s="8"/>
+      <c r="E607" s="7"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E608" s="8"/>
+      <c r="E608" s="7"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E609" s="8"/>
+      <c r="E609" s="7"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E610" s="8"/>
+      <c r="E610" s="7"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E611" s="8"/>
+      <c r="E611" s="7"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E612" s="8"/>
+      <c r="E612" s="7"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E613" s="8"/>
+      <c r="E613" s="7"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E614" s="8"/>
+      <c r="E614" s="7"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="8"/>
+      <c r="E615" s="7"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E616" s="8"/>
+      <c r="E616" s="7"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E617" s="8"/>
+      <c r="E617" s="7"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="8"/>
+      <c r="E618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="8"/>
+      <c r="E619" s="7"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E620" s="8"/>
+      <c r="E620" s="7"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E621" s="8"/>
+      <c r="E621" s="7"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E622" s="8"/>
+      <c r="E622" s="7"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E623" s="8"/>
+      <c r="E623" s="7"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E624" s="8"/>
+      <c r="E624" s="7"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E625" s="8"/>
+      <c r="E625" s="7"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E626" s="8"/>
+      <c r="E626" s="7"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E627" s="8"/>
+      <c r="E627" s="7"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E628" s="8"/>
+      <c r="E628" s="7"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E629" s="8"/>
+      <c r="E629" s="7"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E630" s="8"/>
+      <c r="E630" s="7"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E631" s="8"/>
+      <c r="E631" s="7"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E632" s="8"/>
+      <c r="E632" s="7"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E633" s="8"/>
+      <c r="E633" s="7"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E634" s="8"/>
+      <c r="E634" s="7"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E635" s="8"/>
+      <c r="E635" s="7"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E636" s="8"/>
+      <c r="E636" s="7"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E637" s="8"/>
+      <c r="E637" s="7"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E638" s="8"/>
+      <c r="E638" s="7"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E639" s="8"/>
+      <c r="E639" s="7"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E640" s="8"/>
+      <c r="E640" s="7"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E641" s="8"/>
+      <c r="E641" s="7"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E642" s="8"/>
+      <c r="E642" s="7"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E643" s="8"/>
+      <c r="E643" s="7"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E644" s="8"/>
+      <c r="E644" s="7"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E645" s="8"/>
+      <c r="E645" s="7"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E646" s="8"/>
+      <c r="E646" s="7"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E647" s="8"/>
+      <c r="E647" s="7"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E648" s="8"/>
+      <c r="E648" s="7"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E649" s="8"/>
+      <c r="E649" s="7"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E650" s="8"/>
+      <c r="E650" s="7"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E651" s="8"/>
+      <c r="E651" s="7"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E652" s="8"/>
+      <c r="E652" s="7"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E653" s="8"/>
+      <c r="E653" s="7"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E654" s="8"/>
+      <c r="E654" s="7"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E655" s="8"/>
+      <c r="E655" s="7"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E656" s="8"/>
+      <c r="E656" s="7"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E657" s="8"/>
+      <c r="E657" s="7"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E658" s="8"/>
+      <c r="E658" s="7"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E659" s="8"/>
+      <c r="E659" s="7"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E660" s="8"/>
+      <c r="E660" s="7"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E661" s="8"/>
+      <c r="E661" s="7"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E662" s="8"/>
+      <c r="E662" s="7"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E663" s="8"/>
+      <c r="E663" s="7"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E664" s="8"/>
+      <c r="E664" s="7"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E665" s="8"/>
+      <c r="E665" s="7"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E666" s="8"/>
+      <c r="E666" s="7"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E667" s="8"/>
+      <c r="E667" s="7"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E668" s="8"/>
+      <c r="E668" s="7"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E669" s="8"/>
+      <c r="E669" s="7"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E670" s="8"/>
+      <c r="E670" s="7"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E671" s="8"/>
+      <c r="E671" s="7"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E672" s="8"/>
+      <c r="E672" s="7"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E673" s="8"/>
+      <c r="E673" s="7"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E674" s="8"/>
+      <c r="E674" s="7"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E675" s="8"/>
+      <c r="E675" s="7"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E676" s="8"/>
+      <c r="E676" s="7"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E677" s="8"/>
+      <c r="E677" s="7"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E678" s="8"/>
+      <c r="E678" s="7"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E679" s="8"/>
+      <c r="E679" s="7"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E680" s="8"/>
+      <c r="E680" s="7"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E681" s="8"/>
+      <c r="E681" s="7"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E682" s="8"/>
+      <c r="E682" s="7"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E683" s="8"/>
+      <c r="E683" s="7"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E684" s="8"/>
+      <c r="E684" s="7"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E685" s="8"/>
+      <c r="E685" s="7"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E686" s="8"/>
+      <c r="E686" s="7"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E687" s="8"/>
+      <c r="E687" s="7"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E688" s="8"/>
+      <c r="E688" s="7"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E689" s="8"/>
+      <c r="E689" s="7"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E690" s="8"/>
+      <c r="E690" s="7"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E691" s="8"/>
+      <c r="E691" s="7"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E692" s="8"/>
+      <c r="E692" s="7"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E693" s="8"/>
+      <c r="E693" s="7"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E694" s="8"/>
+      <c r="E694" s="7"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E695" s="8"/>
+      <c r="E695" s="7"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E696" s="8"/>
+      <c r="E696" s="7"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E697" s="8"/>
+      <c r="E697" s="7"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E698" s="8"/>
+      <c r="E698" s="7"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E699" s="8"/>
+      <c r="E699" s="7"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E700" s="8"/>
+      <c r="E700" s="7"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E701" s="8"/>
+      <c r="E701" s="7"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E702" s="8"/>
+      <c r="E702" s="7"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E703" s="8"/>
+      <c r="E703" s="7"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E704" s="8"/>
+      <c r="E704" s="7"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E705" s="8"/>
+      <c r="E705" s="7"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E706" s="8"/>
+      <c r="E706" s="7"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E707" s="8"/>
+      <c r="E707" s="7"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E708" s="8"/>
+      <c r="E708" s="7"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E709" s="8"/>
+      <c r="E709" s="7"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E710" s="8"/>
+      <c r="E710" s="7"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E711" s="8"/>
+      <c r="E711" s="7"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E712" s="8"/>
+      <c r="E712" s="7"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E713" s="8"/>
+      <c r="E713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E714" s="8"/>
+      <c r="E714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E715" s="8"/>
+      <c r="E715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E716" s="8"/>
+      <c r="E716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E717" s="8"/>
+      <c r="E717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E718" s="8"/>
+      <c r="E718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E719" s="8"/>
+      <c r="E719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E720" s="8"/>
+      <c r="E720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E721" s="8"/>
+      <c r="E721" s="7"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E722" s="8"/>
+      <c r="E722" s="7"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E723" s="8"/>
+      <c r="E723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E724" s="8"/>
+      <c r="E724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E725" s="8"/>
+      <c r="E725" s="7"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E726" s="8"/>
+      <c r="E726" s="7"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E727" s="8"/>
+      <c r="E727" s="7"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E728" s="8"/>
+      <c r="E728" s="7"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E729" s="8"/>
+      <c r="E729" s="7"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E730" s="8"/>
+      <c r="E730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E731" s="8"/>
+      <c r="E731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E732" s="8"/>
+      <c r="E732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E733" s="8"/>
+      <c r="E733" s="7"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E734" s="8"/>
+      <c r="E734" s="7"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E735" s="8"/>
+      <c r="E735" s="7"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E736" s="8"/>
+      <c r="E736" s="7"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E737" s="8"/>
+      <c r="E737" s="7"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E738" s="8"/>
+      <c r="E738" s="7"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E739" s="8"/>
+      <c r="E739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E740" s="8"/>
+      <c r="E740" s="7"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E741" s="8"/>
+      <c r="E741" s="7"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E742" s="8"/>
+      <c r="E742" s="7"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E743" s="8"/>
+      <c r="E743" s="7"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E744" s="8"/>
+      <c r="E744" s="7"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E745" s="8"/>
+      <c r="E745" s="7"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E746" s="8"/>
+      <c r="E746" s="7"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E747" s="8"/>
+      <c r="E747" s="7"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E748" s="8"/>
+      <c r="E748" s="7"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E749" s="8"/>
+      <c r="E749" s="7"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E750" s="8"/>
+      <c r="E750" s="7"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E751" s="8"/>
+      <c r="E751" s="7"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E752" s="8"/>
+      <c r="E752" s="7"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E753" s="8"/>
+      <c r="E753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E754" s="8"/>
+      <c r="E754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E755" s="8"/>
+      <c r="E755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E756" s="8"/>
+      <c r="E756" s="7"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E757" s="8"/>
+      <c r="E757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E758" s="8"/>
+      <c r="E758" s="7"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E759" s="8"/>
+      <c r="E759" s="7"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E760" s="8"/>
+      <c r="E760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E761" s="8"/>
+      <c r="E761" s="7"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E762" s="8"/>
+      <c r="E762" s="7"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E763" s="8"/>
+      <c r="E763" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9958,11 +9947,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.01"/>
@@ -10012,14 +10001,14 @@
         <v>383</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20210206001</v>
+        <v>20210207001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>385</v>
       </c>
     </row>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_absent/hh_member_absent.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_absent/hh_member_absent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">if</t>
   </si>
   <si>
-    <t xml:space="preserve">not(selected(data('absent_return_dk'), 'dk')) </t>
+    <t xml:space="preserve">not(selected(data('absent_return_dk'), 'dk')) &amp;&amp; data('absent_return_date') === null</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -1517,11 +1517,11 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.69"/>
   </cols>
@@ -2562,11 +2562,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
@@ -3945,11 +3945,11 @@
   </sheetPr>
   <dimension ref="A1:C255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A207" activeCellId="0" sqref="A207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
@@ -6779,11 +6779,11 @@
   </sheetPr>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.79"/>
@@ -9947,11 +9947,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.01"/>
